--- a/industry_codes.xlsx
+++ b/industry_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophdrechsel/Documents/Personal/Uni/ML_Seminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F87D99-5489-EA4A-9340-5C451111EEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1652CD9-050B-034E-94A4-AA3621CAC253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">' Ind Codes '!$B$1:$C$271</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">' Ind Codes '!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="28">
   <si>
     <t>Construction</t>
   </si>
@@ -72,6 +84,42 @@
   </si>
   <si>
     <t>Professional, Scientific, and Management, and Administrative, and Waste Management Services</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Educational</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Public</t>
   </si>
 </sst>
 </file>
@@ -444,19 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -466,8 +515,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -477,8 +529,11 @@
       <c r="C2">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -488,8 +543,11 @@
       <c r="C3">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -499,8 +557,11 @@
       <c r="C4">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -510,8 +571,11 @@
       <c r="C5">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -521,8 +585,11 @@
       <c r="C6">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -532,8 +599,11 @@
       <c r="C7">
         <v>290</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -543,8 +613,11 @@
       <c r="C8">
         <v>370</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -554,8 +627,11 @@
       <c r="C9">
         <v>380</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -565,8 +641,11 @@
       <c r="C10">
         <v>390</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -576,8 +655,11 @@
       <c r="C11">
         <v>470</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -587,8 +669,11 @@
       <c r="C12">
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -598,8 +683,11 @@
       <c r="C13">
         <v>490</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -609,8 +697,11 @@
       <c r="C14">
         <v>770</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -620,8 +711,11 @@
       <c r="C15">
         <v>1070</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -631,8 +725,11 @@
       <c r="C16">
         <v>1080</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -642,8 +739,11 @@
       <c r="C17">
         <v>1090</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -653,8 +753,11 @@
       <c r="C18">
         <v>1170</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -664,8 +767,11 @@
       <c r="C19">
         <v>1180</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -675,8 +781,11 @@
       <c r="C20">
         <v>1190</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -686,8 +795,11 @@
       <c r="C21">
         <v>1270</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -697,8 +809,11 @@
       <c r="C22">
         <v>1280</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -708,8 +823,11 @@
       <c r="C23">
         <v>1290</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -719,8 +837,11 @@
       <c r="C24">
         <v>1370</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -730,8 +851,11 @@
       <c r="C25">
         <v>1390</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -741,8 +865,11 @@
       <c r="C26">
         <v>1470</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -752,8 +879,11 @@
       <c r="C27">
         <v>1480</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -763,8 +893,11 @@
       <c r="C28">
         <v>1490</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -774,8 +907,11 @@
       <c r="C29">
         <v>1570</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -785,8 +921,11 @@
       <c r="C30">
         <v>1590</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -796,8 +935,11 @@
       <c r="C31">
         <v>1670</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -807,8 +949,11 @@
       <c r="C32">
         <v>1680</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -818,8 +963,11 @@
       <c r="C33">
         <v>1690</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -829,8 +977,11 @@
       <c r="C34">
         <v>1770</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -840,8 +991,11 @@
       <c r="C35">
         <v>1790</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -851,8 +1005,11 @@
       <c r="C36">
         <v>1870</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3</v>
       </c>
@@ -862,8 +1019,11 @@
       <c r="C37">
         <v>1880</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3</v>
       </c>
@@ -873,8 +1033,11 @@
       <c r="C38">
         <v>1890</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3</v>
       </c>
@@ -884,8 +1047,11 @@
       <c r="C39">
         <v>1990</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3</v>
       </c>
@@ -895,8 +1061,11 @@
       <c r="C40">
         <v>2070</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3</v>
       </c>
@@ -906,8 +1075,11 @@
       <c r="C41">
         <v>2090</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3</v>
       </c>
@@ -917,8 +1089,11 @@
       <c r="C42">
         <v>2170</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3</v>
       </c>
@@ -928,8 +1103,11 @@
       <c r="C43">
         <v>2180</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>3</v>
       </c>
@@ -939,8 +1117,11 @@
       <c r="C44">
         <v>2190</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>3</v>
       </c>
@@ -950,8 +1131,11 @@
       <c r="C45">
         <v>2270</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>3</v>
       </c>
@@ -961,8 +1145,11 @@
       <c r="C46">
         <v>2280</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>3</v>
       </c>
@@ -972,8 +1159,11 @@
       <c r="C47">
         <v>2290</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>3</v>
       </c>
@@ -983,8 +1173,11 @@
       <c r="C48">
         <v>2370</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>3</v>
       </c>
@@ -994,8 +1187,11 @@
       <c r="C49">
         <v>2380</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1005,8 +1201,11 @@
       <c r="C50">
         <v>2390</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1016,8 +1215,11 @@
       <c r="C51">
         <v>2470</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1027,8 +1229,11 @@
       <c r="C52">
         <v>2480</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1038,8 +1243,11 @@
       <c r="C53">
         <v>2490</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1049,8 +1257,11 @@
       <c r="C54">
         <v>2570</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1060,8 +1271,11 @@
       <c r="C55">
         <v>2590</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1071,8 +1285,11 @@
       <c r="C56">
         <v>2670</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1082,8 +1299,11 @@
       <c r="C57">
         <v>2680</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1093,8 +1313,11 @@
       <c r="C58">
         <v>2690</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1104,8 +1327,11 @@
       <c r="C59">
         <v>2770</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1115,8 +1341,11 @@
       <c r="C60">
         <v>2780</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1126,8 +1355,11 @@
       <c r="C61">
         <v>2790</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1137,8 +1369,11 @@
       <c r="C62">
         <v>2870</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1148,8 +1383,11 @@
       <c r="C63">
         <v>2880</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1159,8 +1397,11 @@
       <c r="C64">
         <v>2890</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1170,8 +1411,11 @@
       <c r="C65">
         <v>2970</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1181,8 +1425,11 @@
       <c r="C66">
         <v>2980</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1192,8 +1439,11 @@
       <c r="C67">
         <v>2990</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1203,8 +1453,11 @@
       <c r="C68">
         <v>3070</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1214,8 +1467,11 @@
       <c r="C69">
         <v>3080</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1225,8 +1481,11 @@
       <c r="C70">
         <v>3090</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1236,8 +1495,11 @@
       <c r="C71">
         <v>3170</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1247,8 +1509,11 @@
       <c r="C72">
         <v>3180</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1258,8 +1523,11 @@
       <c r="C73">
         <v>3190</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1269,8 +1537,11 @@
       <c r="C74">
         <v>3290</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1280,8 +1551,11 @@
       <c r="C75">
         <v>3360</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1291,8 +1565,11 @@
       <c r="C76">
         <v>3370</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1302,8 +1579,11 @@
       <c r="C77">
         <v>3380</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1313,8 +1593,11 @@
       <c r="C78">
         <v>3390</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1324,8 +1607,11 @@
       <c r="C79">
         <v>3470</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1335,8 +1621,11 @@
       <c r="C80">
         <v>3490</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1346,8 +1635,11 @@
       <c r="C81">
         <v>3570</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1357,8 +1649,11 @@
       <c r="C82">
         <v>3580</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1368,8 +1663,11 @@
       <c r="C83">
         <v>3590</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1379,8 +1677,11 @@
       <c r="C84">
         <v>3670</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1390,8 +1691,11 @@
       <c r="C85">
         <v>3680</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1401,8 +1705,11 @@
       <c r="C86">
         <v>3690</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1412,8 +1719,11 @@
       <c r="C87">
         <v>3770</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1423,8 +1733,11 @@
       <c r="C88">
         <v>3780</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1434,8 +1747,11 @@
       <c r="C89">
         <v>3790</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1445,8 +1761,11 @@
       <c r="C90">
         <v>3870</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1456,8 +1775,11 @@
       <c r="C91">
         <v>3890</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1467,8 +1789,11 @@
       <c r="C92">
         <v>3960</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1478,8 +1803,11 @@
       <c r="C93">
         <v>3970</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1489,8 +1817,11 @@
       <c r="C94">
         <v>3980</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1500,8 +1831,11 @@
       <c r="C95">
         <v>3990</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>4</v>
       </c>
@@ -1511,8 +1845,11 @@
       <c r="C96">
         <v>4070</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>4</v>
       </c>
@@ -1522,8 +1859,11 @@
       <c r="C97">
         <v>4080</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>4</v>
       </c>
@@ -1533,8 +1873,11 @@
       <c r="C98">
         <v>4090</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>4</v>
       </c>
@@ -1544,8 +1887,11 @@
       <c r="C99">
         <v>4170</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>4</v>
       </c>
@@ -1555,8 +1901,11 @@
       <c r="C100">
         <v>4180</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>4</v>
       </c>
@@ -1566,8 +1915,11 @@
       <c r="C101">
         <v>4190</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>4</v>
       </c>
@@ -1577,8 +1929,11 @@
       <c r="C102">
         <v>4260</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>4</v>
       </c>
@@ -1588,8 +1943,11 @@
       <c r="C103">
         <v>4270</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>4</v>
       </c>
@@ -1599,8 +1957,11 @@
       <c r="C104">
         <v>4280</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>4</v>
       </c>
@@ -1610,8 +1971,11 @@
       <c r="C105">
         <v>4290</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>4</v>
       </c>
@@ -1621,8 +1985,11 @@
       <c r="C106">
         <v>4370</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1632,8 +1999,11 @@
       <c r="C107">
         <v>4380</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>4</v>
       </c>
@@ -1643,8 +2013,11 @@
       <c r="C108">
         <v>4390</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>4</v>
       </c>
@@ -1654,8 +2027,11 @@
       <c r="C109">
         <v>4470</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>4</v>
       </c>
@@ -1665,8 +2041,11 @@
       <c r="C110">
         <v>4480</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>4</v>
       </c>
@@ -1676,8 +2055,11 @@
       <c r="C111">
         <v>4490</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>4</v>
       </c>
@@ -1687,8 +2069,11 @@
       <c r="C112">
         <v>4560</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>4</v>
       </c>
@@ -1698,8 +2083,11 @@
       <c r="C113">
         <v>4570</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>4</v>
       </c>
@@ -1709,8 +2097,11 @@
       <c r="C114">
         <v>4580</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>4</v>
       </c>
@@ -1720,8 +2111,11 @@
       <c r="C115">
         <v>4585</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>4</v>
       </c>
@@ -1731,8 +2125,11 @@
       <c r="C116">
         <v>4590</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>5</v>
       </c>
@@ -1742,8 +2139,11 @@
       <c r="C117">
         <v>4670</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>5</v>
       </c>
@@ -1753,8 +2153,11 @@
       <c r="C118">
         <v>4680</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>5</v>
       </c>
@@ -1764,8 +2167,11 @@
       <c r="C119">
         <v>4690</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>5</v>
       </c>
@@ -1775,8 +2181,11 @@
       <c r="C120">
         <v>4770</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>5</v>
       </c>
@@ -1786,8 +2195,11 @@
       <c r="C121">
         <v>4780</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>5</v>
       </c>
@@ -1797,8 +2209,11 @@
       <c r="C122">
         <v>4790</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>5</v>
       </c>
@@ -1808,8 +2223,11 @@
       <c r="C123">
         <v>4870</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>5</v>
       </c>
@@ -1819,8 +2237,11 @@
       <c r="C124">
         <v>4880</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>5</v>
       </c>
@@ -1830,8 +2251,11 @@
       <c r="C125">
         <v>4890</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>5</v>
       </c>
@@ -1841,8 +2265,11 @@
       <c r="C126">
         <v>4970</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>5</v>
       </c>
@@ -1852,8 +2279,11 @@
       <c r="C127">
         <v>4980</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>5</v>
       </c>
@@ -1863,8 +2293,11 @@
       <c r="C128">
         <v>4990</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>5</v>
       </c>
@@ -1874,8 +2307,11 @@
       <c r="C129">
         <v>5070</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>5</v>
       </c>
@@ -1885,8 +2321,11 @@
       <c r="C130">
         <v>5080</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>5</v>
       </c>
@@ -1896,8 +2335,11 @@
       <c r="C131">
         <v>5090</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>5</v>
       </c>
@@ -1907,8 +2349,11 @@
       <c r="C132">
         <v>5170</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>5</v>
       </c>
@@ -1918,8 +2363,11 @@
       <c r="C133">
         <v>5180</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>5</v>
       </c>
@@ -1929,8 +2377,11 @@
       <c r="C134">
         <v>5190</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>5</v>
       </c>
@@ -1940,8 +2391,11 @@
       <c r="C135">
         <v>5270</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>5</v>
       </c>
@@ -1951,8 +2405,11 @@
       <c r="C136">
         <v>5280</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>5</v>
       </c>
@@ -1962,8 +2419,11 @@
       <c r="C137">
         <v>5290</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>5</v>
       </c>
@@ -1973,8 +2433,11 @@
       <c r="C138">
         <v>5370</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>5</v>
       </c>
@@ -1984,8 +2447,11 @@
       <c r="C139">
         <v>5380</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>5</v>
       </c>
@@ -1995,8 +2461,11 @@
       <c r="C140">
         <v>5390</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>5</v>
       </c>
@@ -2006,8 +2475,11 @@
       <c r="C141">
         <v>5470</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>5</v>
       </c>
@@ -2017,8 +2489,11 @@
       <c r="C142">
         <v>5480</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>5</v>
       </c>
@@ -2028,8 +2503,11 @@
       <c r="C143">
         <v>5490</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2039,8 +2517,11 @@
       <c r="C144">
         <v>5570</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>5</v>
       </c>
@@ -2050,8 +2531,11 @@
       <c r="C145">
         <v>5580</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>5</v>
       </c>
@@ -2061,8 +2545,11 @@
       <c r="C146">
         <v>5590</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>5</v>
       </c>
@@ -2072,8 +2559,11 @@
       <c r="C147">
         <v>5591</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>5</v>
       </c>
@@ -2083,8 +2573,11 @@
       <c r="C148">
         <v>5592</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>5</v>
       </c>
@@ -2094,8 +2587,11 @@
       <c r="C149">
         <v>5670</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>5</v>
       </c>
@@ -2105,8 +2601,11 @@
       <c r="C150">
         <v>5680</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>5</v>
       </c>
@@ -2116,8 +2615,11 @@
       <c r="C151">
         <v>5690</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>5</v>
       </c>
@@ -2127,8 +2629,11 @@
       <c r="C152">
         <v>5790</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>6</v>
       </c>
@@ -2138,8 +2643,11 @@
       <c r="C153">
         <v>6070</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>6</v>
       </c>
@@ -2149,8 +2657,11 @@
       <c r="C154">
         <v>6080</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>6</v>
       </c>
@@ -2160,8 +2671,11 @@
       <c r="C155">
         <v>6090</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>6</v>
       </c>
@@ -2171,8 +2685,11 @@
       <c r="C156">
         <v>6170</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2182,8 +2699,11 @@
       <c r="C157">
         <v>6180</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>6</v>
       </c>
@@ -2193,8 +2713,11 @@
       <c r="C158">
         <v>6190</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>6</v>
       </c>
@@ -2204,8 +2727,11 @@
       <c r="C159">
         <v>6270</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>6</v>
       </c>
@@ -2215,8 +2741,11 @@
       <c r="C160">
         <v>6280</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>6</v>
       </c>
@@ -2226,8 +2755,11 @@
       <c r="C161">
         <v>6290</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>6</v>
       </c>
@@ -2237,8 +2769,11 @@
       <c r="C162">
         <v>6370</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>6</v>
       </c>
@@ -2248,8 +2783,11 @@
       <c r="C163">
         <v>6380</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>6</v>
       </c>
@@ -2259,8 +2797,11 @@
       <c r="C164">
         <v>6390</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>6</v>
       </c>
@@ -2270,8 +2811,11 @@
       <c r="C165">
         <v>570</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>6</v>
       </c>
@@ -2281,8 +2825,11 @@
       <c r="C166">
         <v>580</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>6</v>
       </c>
@@ -2292,8 +2839,11 @@
       <c r="C167">
         <v>590</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>6</v>
       </c>
@@ -2303,8 +2853,11 @@
       <c r="C168">
         <v>670</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>6</v>
       </c>
@@ -2314,8 +2867,11 @@
       <c r="C169">
         <v>680</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>6</v>
       </c>
@@ -2325,8 +2881,11 @@
       <c r="C170">
         <v>690</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>7</v>
       </c>
@@ -2336,8 +2895,11 @@
       <c r="C171">
         <v>6470</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>7</v>
       </c>
@@ -2347,8 +2909,11 @@
       <c r="C172">
         <v>6480</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>7</v>
       </c>
@@ -2358,8 +2923,11 @@
       <c r="C173">
         <v>6490</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>7</v>
       </c>
@@ -2369,8 +2937,11 @@
       <c r="C174">
         <v>6570</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>7</v>
       </c>
@@ -2380,8 +2951,11 @@
       <c r="C175">
         <v>6590</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>7</v>
       </c>
@@ -2391,8 +2965,11 @@
       <c r="C176">
         <v>6670</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>7</v>
       </c>
@@ -2402,8 +2979,11 @@
       <c r="C177">
         <v>6672</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>7</v>
       </c>
@@ -2413,8 +2993,11 @@
       <c r="C178">
         <v>6680</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>7</v>
       </c>
@@ -2424,8 +3007,11 @@
       <c r="C179">
         <v>6690</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>7</v>
       </c>
@@ -2435,8 +3021,11 @@
       <c r="C180">
         <v>6695</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>7</v>
       </c>
@@ -2446,8 +3035,11 @@
       <c r="C181">
         <v>6770</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>7</v>
       </c>
@@ -2457,8 +3049,11 @@
       <c r="C182">
         <v>6780</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>8</v>
       </c>
@@ -2468,8 +3063,11 @@
       <c r="C183">
         <v>6870</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>8</v>
       </c>
@@ -2479,8 +3077,11 @@
       <c r="C184">
         <v>6880</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>8</v>
       </c>
@@ -2490,8 +3091,11 @@
       <c r="C185">
         <v>6890</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>8</v>
       </c>
@@ -2501,8 +3105,11 @@
       <c r="C186">
         <v>6970</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>8</v>
       </c>
@@ -2512,8 +3119,11 @@
       <c r="C187">
         <v>6990</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>8</v>
       </c>
@@ -2523,8 +3133,11 @@
       <c r="C188">
         <v>7070</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>8</v>
       </c>
@@ -2534,8 +3147,11 @@
       <c r="C189">
         <v>7080</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>8</v>
       </c>
@@ -2545,8 +3161,11 @@
       <c r="C190">
         <v>7170</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>8</v>
       </c>
@@ -2556,8 +3175,11 @@
       <c r="C191">
         <v>7180</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>8</v>
       </c>
@@ -2567,8 +3189,11 @@
       <c r="C192">
         <v>7190</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>9</v>
       </c>
@@ -2578,8 +3203,11 @@
       <c r="C193">
         <v>7270</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>9</v>
       </c>
@@ -2589,8 +3217,11 @@
       <c r="C194">
         <v>7280</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>9</v>
       </c>
@@ -2600,8 +3231,11 @@
       <c r="C195">
         <v>7290</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>9</v>
       </c>
@@ -2611,8 +3245,11 @@
       <c r="C196">
         <v>7370</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>9</v>
       </c>
@@ -2622,8 +3259,11 @@
       <c r="C197">
         <v>7380</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>9</v>
       </c>
@@ -2633,8 +3273,11 @@
       <c r="C198">
         <v>7390</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>9</v>
       </c>
@@ -2644,8 +3287,11 @@
       <c r="C199">
         <v>7460</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>9</v>
       </c>
@@ -2655,8 +3301,11 @@
       <c r="C200">
         <v>7470</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>9</v>
       </c>
@@ -2666,8 +3315,11 @@
       <c r="C201">
         <v>7480</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>9</v>
       </c>
@@ -2677,8 +3329,11 @@
       <c r="C202">
         <v>7490</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>9</v>
       </c>
@@ -2688,8 +3343,11 @@
       <c r="C203">
         <v>7570</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>9</v>
       </c>
@@ -2699,8 +3357,11 @@
       <c r="C204">
         <v>7580</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>9</v>
       </c>
@@ -2710,8 +3371,11 @@
       <c r="C205">
         <v>7590</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>9</v>
       </c>
@@ -2721,8 +3385,11 @@
       <c r="C206">
         <v>7670</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>9</v>
       </c>
@@ -2732,8 +3399,11 @@
       <c r="C207">
         <v>7680</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>9</v>
       </c>
@@ -2743,8 +3413,11 @@
       <c r="C208">
         <v>7690</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>9</v>
       </c>
@@ -2754,8 +3427,11 @@
       <c r="C209">
         <v>7770</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>9</v>
       </c>
@@ -2765,8 +3441,11 @@
       <c r="C210">
         <v>7780</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>9</v>
       </c>
@@ -2776,8 +3455,11 @@
       <c r="C211">
         <v>7790</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>10</v>
       </c>
@@ -2787,8 +3469,11 @@
       <c r="C212">
         <v>7860</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>10</v>
       </c>
@@ -2798,8 +3483,11 @@
       <c r="C213">
         <v>7870</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>10</v>
       </c>
@@ -2809,8 +3497,11 @@
       <c r="C214">
         <v>7880</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>10</v>
       </c>
@@ -2820,8 +3511,11 @@
       <c r="C215">
         <v>7890</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>10</v>
       </c>
@@ -2831,8 +3525,11 @@
       <c r="C216">
         <v>7970</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>10</v>
       </c>
@@ -2842,8 +3539,11 @@
       <c r="C217">
         <v>7980</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>10</v>
       </c>
@@ -2853,8 +3553,11 @@
       <c r="C218">
         <v>7990</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>10</v>
       </c>
@@ -2864,8 +3567,11 @@
       <c r="C219">
         <v>8070</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>10</v>
       </c>
@@ -2875,8 +3581,11 @@
       <c r="C220">
         <v>8080</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>10</v>
       </c>
@@ -2886,8 +3595,11 @@
       <c r="C221">
         <v>8090</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>10</v>
       </c>
@@ -2897,8 +3609,11 @@
       <c r="C222">
         <v>8170</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>10</v>
       </c>
@@ -2908,8 +3623,11 @@
       <c r="C223">
         <v>8180</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D223" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>10</v>
       </c>
@@ -2919,8 +3637,11 @@
       <c r="C224">
         <v>8190</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>10</v>
       </c>
@@ -2930,8 +3651,11 @@
       <c r="C225">
         <v>8270</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>10</v>
       </c>
@@ -2941,8 +3665,11 @@
       <c r="C226">
         <v>8290</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>10</v>
       </c>
@@ -2952,8 +3679,11 @@
       <c r="C227">
         <v>8370</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>10</v>
       </c>
@@ -2963,8 +3693,11 @@
       <c r="C228">
         <v>8380</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>10</v>
       </c>
@@ -2974,8 +3707,11 @@
       <c r="C229">
         <v>8390</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>10</v>
       </c>
@@ -2985,8 +3721,11 @@
       <c r="C230">
         <v>8470</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D230" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>11</v>
       </c>
@@ -2996,8 +3735,11 @@
       <c r="C231">
         <v>8560</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>11</v>
       </c>
@@ -3007,8 +3749,11 @@
       <c r="C232">
         <v>8570</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>11</v>
       </c>
@@ -3018,8 +3763,11 @@
       <c r="C233">
         <v>8580</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>11</v>
       </c>
@@ -3029,8 +3777,11 @@
       <c r="C234">
         <v>8590</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>11</v>
       </c>
@@ -3040,8 +3791,11 @@
       <c r="C235">
         <v>8660</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D235" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>11</v>
       </c>
@@ -3051,8 +3805,11 @@
       <c r="C236">
         <v>8670</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>11</v>
       </c>
@@ -3062,8 +3819,11 @@
       <c r="C237">
         <v>8680</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>11</v>
       </c>
@@ -3073,8 +3833,11 @@
       <c r="C238">
         <v>8690</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>12</v>
       </c>
@@ -3084,8 +3847,11 @@
       <c r="C239">
         <v>8770</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>12</v>
       </c>
@@ -3095,8 +3861,11 @@
       <c r="C240">
         <v>8780</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>12</v>
       </c>
@@ -3106,8 +3875,11 @@
       <c r="C241">
         <v>8790</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>12</v>
       </c>
@@ -3117,8 +3889,11 @@
       <c r="C242">
         <v>8870</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>12</v>
       </c>
@@ -3128,8 +3903,11 @@
       <c r="C243">
         <v>8880</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>12</v>
       </c>
@@ -3139,8 +3917,11 @@
       <c r="C244">
         <v>8890</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>12</v>
       </c>
@@ -3150,8 +3931,11 @@
       <c r="C245">
         <v>8970</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>12</v>
       </c>
@@ -3161,8 +3945,11 @@
       <c r="C246">
         <v>8980</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>12</v>
       </c>
@@ -3172,8 +3959,11 @@
       <c r="C247">
         <v>8990</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>12</v>
       </c>
@@ -3183,8 +3973,11 @@
       <c r="C248">
         <v>9070</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>12</v>
       </c>
@@ -3194,8 +3987,11 @@
       <c r="C249">
         <v>9080</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>12</v>
       </c>
@@ -3205,8 +4001,11 @@
       <c r="C250">
         <v>9090</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>12</v>
       </c>
@@ -3216,8 +4015,11 @@
       <c r="C251">
         <v>9160</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>12</v>
       </c>
@@ -3227,8 +4029,11 @@
       <c r="C252">
         <v>9170</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>12</v>
       </c>
@@ -3238,8 +4043,11 @@
       <c r="C253">
         <v>9180</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>12</v>
       </c>
@@ -3249,8 +4057,11 @@
       <c r="C254">
         <v>9190</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>12</v>
       </c>
@@ -3260,8 +4071,11 @@
       <c r="C255">
         <v>9290</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>13</v>
       </c>
@@ -3271,8 +4085,11 @@
       <c r="C256">
         <v>9370</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D256" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>13</v>
       </c>
@@ -3282,8 +4099,11 @@
       <c r="C257">
         <v>9380</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D257" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>13</v>
       </c>
@@ -3293,8 +4113,11 @@
       <c r="C258">
         <v>9390</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>13</v>
       </c>
@@ -3304,8 +4127,11 @@
       <c r="C259">
         <v>9470</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D259" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>13</v>
       </c>
@@ -3315,8 +4141,11 @@
       <c r="C260">
         <v>9480</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D260" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>13</v>
       </c>
@@ -3326,8 +4155,11 @@
       <c r="C261">
         <v>9490</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>13</v>
       </c>
@@ -3337,8 +4169,11 @@
       <c r="C262">
         <v>9570</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>13</v>
       </c>
@@ -3348,8 +4183,11 @@
       <c r="C263">
         <v>9590</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D263" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>13</v>
       </c>
@@ -3359,8 +4197,11 @@
       <c r="C264">
         <v>9670</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D264" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>13</v>
       </c>
@@ -3370,8 +4211,11 @@
       <c r="C265">
         <v>9680</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>13</v>
       </c>
@@ -3381,8 +4225,11 @@
       <c r="C266">
         <v>9690</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D266" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>13</v>
       </c>
@@ -3392,8 +4239,11 @@
       <c r="C267">
         <v>9770</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>13</v>
       </c>
@@ -3403,8 +4253,11 @@
       <c r="C268">
         <v>9780</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D268" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>13</v>
       </c>
@@ -3414,8 +4267,11 @@
       <c r="C269">
         <v>9790</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>13</v>
       </c>
@@ -3425,8 +4281,11 @@
       <c r="C270">
         <v>9870</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D270" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>13</v>
       </c>
@@ -3435,6 +4294,9 @@
       </c>
       <c r="C271">
         <v>9920</v>
+      </c>
+      <c r="D271" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
